--- a/Ideal.xlsx
+++ b/Ideal.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23802"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E619FDB-C690-463E-A848-7EC998DA1CF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://2wglobal-my.sharepoint.com/personal/aaron_eaker_2wglobal_com/Documents/Documents/Inventory stuff/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{6E619FDB-C690-463E-A848-7EC998DA1CF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B10B4FDD-C129-4AC3-9329-660A2B231F51}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="105">
   <si>
     <t>Part Number</t>
   </si>
@@ -76,9 +79,6 @@
     <t>000071597D</t>
   </si>
   <si>
-    <t>PASSAT BWL MY2019</t>
-  </si>
-  <si>
     <t>000072548A</t>
   </si>
   <si>
@@ -121,9 +121,6 @@
     <t>COUPE TRUNK LINER</t>
   </si>
   <si>
-    <t>Change to returnable?</t>
-  </si>
-  <si>
     <t>3CM061167</t>
   </si>
   <si>
@@ -265,9 +262,6 @@
     <t>3CN071597</t>
   </si>
   <si>
-    <t>ATLAS BWL MY2019</t>
-  </si>
-  <si>
     <t>3CN071691  DML</t>
   </si>
   <si>
@@ -301,9 +295,6 @@
     <t>561061195  KS6</t>
   </si>
   <si>
-    <t>BUMPERDILLO</t>
-  </si>
-  <si>
     <t>561061370E EOM</t>
   </si>
   <si>
@@ -313,9 +304,6 @@
     <t>561061550E 041</t>
   </si>
   <si>
-    <t>BKM</t>
-  </si>
-  <si>
     <t>561065760B</t>
   </si>
   <si>
@@ -344,13 +332,25 @@
   </si>
   <si>
     <t>TORX BOLT</t>
+  </si>
+  <si>
+    <t>PASSAT BUMPERDILLO</t>
+  </si>
+  <si>
+    <t>PASSAT WHEEL LOCKS</t>
+  </si>
+  <si>
+    <t>ATLAS WHEEL LOCKS</t>
+  </si>
+  <si>
+    <t>PASSAT MONSTER MATS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -359,20 +359,88 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -384,20 +452,105 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{3F780B5E-BC60-49D6-97C7-F3877B9A3FD9}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -611,19 +764,19 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="37.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.140625" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="25" width="8.7109375" customWidth="1"/>
+    <col min="5" max="23" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,7 +790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -649,29 +802,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1">
+      <c r="D4" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -682,486 +835,495 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="C7" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>5220</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="C9" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="C10" s="2">
         <v>7272</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="C11" s="2">
         <v>6300</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="1">
+        <v>3600</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B14" s="3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="C14" s="2">
         <v>2196</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="C16">
+        <v>300</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C17" s="2">
         <v>3840</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2">
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2">
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="C24" s="2">
         <v>13560</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2">
         <v>3360</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A27" s="3" t="s">
+      <c r="D27" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A28" s="3" t="s">
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A29" s="3" t="s">
+      <c r="D29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="C30" s="2">
         <v>3094</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="C31" s="2">
         <v>3276</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A32" s="3" t="s">
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A33" s="3" t="s">
+      <c r="D33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A34" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C34" s="2">
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="D36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="D37" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="D38" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="D39" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A39" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="D40" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A40" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A41" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="B41" s="3" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C41" s="2">
         <v>2400</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A43" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A44" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="C44" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="D47" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A46" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A47" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A48" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
